--- a/MNE-portal-app/reports/SG-MNE1_FY2017.xlsx
+++ b/MNE-portal-app/reports/SG-MNE1_FY2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="193">
   <si>
     <t>Tax Reference Number of Reporting Entity: *</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>The Revenue figures exclude an extraordinary gain from the sales of two landed properties in Australia and New Zealands.</t>
+  </si>
+  <si>
+    <t>113XXXXXXK</t>
   </si>
 </sst>
 </file>
@@ -1353,6 +1356,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1362,14 +1434,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1380,119 +1491,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1777,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1828,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="20"/>
@@ -2169,10 +2172,10 @@
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -2349,11 +2352,11 @@
       <c r="A16" s="46"/>
       <c r="B16" s="76"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -2389,11 +2392,11 @@
         <v>3</v>
       </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2429,11 +2432,11 @@
         <v>1</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -2469,11 +2472,11 @@
         <v>3</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -2507,11 +2510,11 @@
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -2623,11 +2626,11 @@
         <v>28</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -2663,11 +2666,11 @@
         <v>3</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -2703,11 +2706,11 @@
         <v>31</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
@@ -2741,11 +2744,11 @@
       </c>
       <c r="B26" s="77"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
@@ -2781,11 +2784,11 @@
         <v>34</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
@@ -2821,11 +2824,11 @@
         <v>36</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
@@ -2861,11 +2864,11 @@
         <v>10</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
@@ -2901,11 +2904,11 @@
         <v>10</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
@@ -2939,11 +2942,11 @@
       </c>
       <c r="B31" s="77"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
@@ -2977,11 +2980,11 @@
       </c>
       <c r="B32" s="77"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
@@ -3017,11 +3020,11 @@
         <v>523110</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
@@ -3057,11 +3060,11 @@
         <v>43</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
@@ -3095,11 +3098,11 @@
       </c>
       <c r="B35" s="77"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
@@ -3133,11 +3136,11 @@
       </c>
       <c r="B36" s="77"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
@@ -3173,11 +3176,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
@@ -3213,12 +3216,12 @@
         <v>49</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
@@ -3253,12 +3256,12 @@
         <v>51</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
@@ -3291,12 +3294,12 @@
       </c>
       <c r="B40" s="80"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
@@ -3396,23 +3399,23 @@
       <c r="AH42" s="19"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="93"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="116"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3476,10 +3479,10 @@
       <c r="B45" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="108"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -3556,9 +3559,9 @@
       <c r="B47" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -3630,11 +3633,11 @@
       <c r="B49" s="53"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="94" t="s">
+      <c r="E49" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="95"/>
-      <c r="G49" s="96"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="109"/>
       <c r="H49" s="10"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -4110,42 +4113,42 @@
       <c r="AH57" s="19"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="92"/>
-      <c r="N58" s="92"/>
-      <c r="O58" s="92"/>
-      <c r="P58" s="92"/>
-      <c r="Q58" s="92"/>
-      <c r="R58" s="92"/>
-      <c r="S58" s="92"/>
-      <c r="T58" s="92"/>
-      <c r="U58" s="92"/>
-      <c r="V58" s="92"/>
-      <c r="W58" s="92"/>
-      <c r="X58" s="92"/>
-      <c r="Y58" s="92"/>
-      <c r="Z58" s="92"/>
-      <c r="AA58" s="92"/>
-      <c r="AB58" s="92"/>
-      <c r="AC58" s="92"/>
-      <c r="AD58" s="92"/>
-      <c r="AE58" s="92"/>
-      <c r="AF58" s="92"/>
-      <c r="AG58" s="92"/>
-      <c r="AH58" s="93"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="115"/>
+      <c r="L58" s="115"/>
+      <c r="M58" s="115"/>
+      <c r="N58" s="115"/>
+      <c r="O58" s="115"/>
+      <c r="P58" s="115"/>
+      <c r="Q58" s="115"/>
+      <c r="R58" s="115"/>
+      <c r="S58" s="115"/>
+      <c r="T58" s="115"/>
+      <c r="U58" s="115"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
+      <c r="X58" s="115"/>
+      <c r="Y58" s="115"/>
+      <c r="Z58" s="115"/>
+      <c r="AA58" s="115"/>
+      <c r="AB58" s="115"/>
+      <c r="AC58" s="115"/>
+      <c r="AD58" s="115"/>
+      <c r="AE58" s="115"/>
+      <c r="AF58" s="115"/>
+      <c r="AG58" s="115"/>
+      <c r="AH58" s="116"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A59" s="52" t="s">
@@ -4235,84 +4238,84 @@
       <c r="E61" s="86"/>
       <c r="F61" s="86"/>
       <c r="G61" s="86"/>
-      <c r="H61" s="109" t="s">
+      <c r="H61" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="I61" s="109"/>
-      <c r="J61" s="109"/>
-      <c r="K61" s="109"/>
-      <c r="L61" s="109"/>
-      <c r="M61" s="109"/>
-      <c r="N61" s="109"/>
-      <c r="O61" s="109"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="109"/>
-      <c r="R61" s="109"/>
-      <c r="S61" s="109"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="117"/>
+      <c r="M61" s="117"/>
+      <c r="N61" s="117"/>
+      <c r="O61" s="117"/>
+      <c r="P61" s="117"/>
+      <c r="Q61" s="117"/>
+      <c r="R61" s="117"/>
+      <c r="S61" s="117"/>
       <c r="T61" s="87"/>
-      <c r="U61" s="116" t="s">
+      <c r="U61" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="V61" s="117"/>
-      <c r="W61" s="117"/>
-      <c r="X61" s="117"/>
-      <c r="Y61" s="117"/>
-      <c r="Z61" s="117"/>
-      <c r="AA61" s="117"/>
-      <c r="AB61" s="117"/>
-      <c r="AC61" s="117"/>
-      <c r="AD61" s="117"/>
-      <c r="AE61" s="117"/>
-      <c r="AF61" s="117"/>
-      <c r="AG61" s="118"/>
+      <c r="V61" s="125"/>
+      <c r="W61" s="125"/>
+      <c r="X61" s="125"/>
+      <c r="Y61" s="125"/>
+      <c r="Z61" s="125"/>
+      <c r="AA61" s="125"/>
+      <c r="AB61" s="125"/>
+      <c r="AC61" s="125"/>
+      <c r="AD61" s="125"/>
+      <c r="AE61" s="125"/>
+      <c r="AF61" s="125"/>
+      <c r="AG61" s="126"/>
       <c r="AH61" s="88"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A62" s="82"/>
       <c r="B62" s="82"/>
-      <c r="C62" s="110" t="s">
+      <c r="C62" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="110"/>
-      <c r="E62" s="97" t="s">
+      <c r="D62" s="118"/>
+      <c r="E62" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="98"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="111" t="s">
+      <c r="F62" s="134"/>
+      <c r="G62" s="135"/>
+      <c r="H62" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="I62" s="113" t="s">
+      <c r="I62" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="J62" s="114"/>
-      <c r="K62" s="114"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="115"/>
-      <c r="R62" s="111" t="s">
+      <c r="J62" s="122"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="122"/>
+      <c r="M62" s="122"/>
+      <c r="N62" s="122"/>
+      <c r="O62" s="122"/>
+      <c r="P62" s="122"/>
+      <c r="Q62" s="123"/>
+      <c r="R62" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="S62" s="111" t="s">
+      <c r="S62" s="119" t="s">
         <v>30</v>
       </c>
       <c r="T62" s="82"/>
-      <c r="U62" s="119"/>
-      <c r="V62" s="120"/>
-      <c r="W62" s="120"/>
-      <c r="X62" s="120"/>
-      <c r="Y62" s="120"/>
-      <c r="Z62" s="120"/>
-      <c r="AA62" s="120"/>
-      <c r="AB62" s="120"/>
-      <c r="AC62" s="120"/>
-      <c r="AD62" s="120"/>
-      <c r="AE62" s="120"/>
-      <c r="AF62" s="120"/>
-      <c r="AG62" s="121"/>
+      <c r="U62" s="127"/>
+      <c r="V62" s="128"/>
+      <c r="W62" s="128"/>
+      <c r="X62" s="128"/>
+      <c r="Y62" s="128"/>
+      <c r="Z62" s="128"/>
+      <c r="AA62" s="128"/>
+      <c r="AB62" s="128"/>
+      <c r="AC62" s="128"/>
+      <c r="AD62" s="128"/>
+      <c r="AE62" s="128"/>
+      <c r="AF62" s="128"/>
+      <c r="AG62" s="129"/>
       <c r="AH62" s="89"/>
     </row>
     <row r="63" spans="1:34" ht="164.65" x14ac:dyDescent="0.45">
@@ -4337,7 +4340,7 @@
       <c r="G63" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="112"/>
+      <c r="H63" s="120"/>
       <c r="I63" s="84" t="s">
         <v>33</v>
       </c>
@@ -4365,8 +4368,8 @@
       <c r="Q63" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="R63" s="112"/>
-      <c r="S63" s="112"/>
+      <c r="R63" s="120"/>
+      <c r="S63" s="120"/>
       <c r="T63" s="68" t="s">
         <v>94</v>
       </c>
@@ -4458,21 +4461,21 @@
       <c r="T64" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="U64" s="94" t="s">
+      <c r="U64" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="V64" s="95"/>
-      <c r="W64" s="95"/>
-      <c r="X64" s="95"/>
-      <c r="Y64" s="95"/>
-      <c r="Z64" s="95"/>
-      <c r="AA64" s="95"/>
-      <c r="AB64" s="95"/>
-      <c r="AC64" s="95"/>
-      <c r="AD64" s="95"/>
-      <c r="AE64" s="95"/>
-      <c r="AF64" s="95"/>
-      <c r="AG64" s="96"/>
+      <c r="V64" s="108"/>
+      <c r="W64" s="108"/>
+      <c r="X64" s="108"/>
+      <c r="Y64" s="108"/>
+      <c r="Z64" s="108"/>
+      <c r="AA64" s="108"/>
+      <c r="AB64" s="108"/>
+      <c r="AC64" s="108"/>
+      <c r="AD64" s="108"/>
+      <c r="AE64" s="108"/>
+      <c r="AF64" s="108"/>
+      <c r="AG64" s="109"/>
       <c r="AH64" s="63"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.45">
@@ -4518,21 +4521,21 @@
         <v>31</v>
       </c>
       <c r="T65" s="81"/>
-      <c r="U65" s="94" t="s">
+      <c r="U65" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="V65" s="95"/>
-      <c r="W65" s="95"/>
-      <c r="X65" s="95"/>
-      <c r="Y65" s="95"/>
-      <c r="Z65" s="95"/>
-      <c r="AA65" s="95"/>
-      <c r="AB65" s="95"/>
-      <c r="AC65" s="95"/>
-      <c r="AD65" s="95"/>
-      <c r="AE65" s="95"/>
-      <c r="AF65" s="95"/>
-      <c r="AG65" s="96"/>
+      <c r="V65" s="108"/>
+      <c r="W65" s="108"/>
+      <c r="X65" s="108"/>
+      <c r="Y65" s="108"/>
+      <c r="Z65" s="108"/>
+      <c r="AA65" s="108"/>
+      <c r="AB65" s="108"/>
+      <c r="AC65" s="108"/>
+      <c r="AD65" s="108"/>
+      <c r="AE65" s="108"/>
+      <c r="AF65" s="108"/>
+      <c r="AG65" s="109"/>
       <c r="AH65" s="63"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.45">
@@ -4578,21 +4581,21 @@
         <v>134</v>
       </c>
       <c r="T66" s="81"/>
-      <c r="U66" s="94" t="s">
+      <c r="U66" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="V66" s="95"/>
-      <c r="W66" s="95"/>
-      <c r="X66" s="95"/>
-      <c r="Y66" s="95"/>
-      <c r="Z66" s="95"/>
-      <c r="AA66" s="95"/>
-      <c r="AB66" s="95"/>
-      <c r="AC66" s="95"/>
-      <c r="AD66" s="95"/>
-      <c r="AE66" s="95"/>
-      <c r="AF66" s="95"/>
-      <c r="AG66" s="96"/>
+      <c r="V66" s="108"/>
+      <c r="W66" s="108"/>
+      <c r="X66" s="108"/>
+      <c r="Y66" s="108"/>
+      <c r="Z66" s="108"/>
+      <c r="AA66" s="108"/>
+      <c r="AB66" s="108"/>
+      <c r="AC66" s="108"/>
+      <c r="AD66" s="108"/>
+      <c r="AE66" s="108"/>
+      <c r="AF66" s="108"/>
+      <c r="AG66" s="109"/>
       <c r="AH66" s="63"/>
     </row>
     <row r="67" spans="1:34" ht="46.5" x14ac:dyDescent="0.45">
@@ -4646,21 +4649,21 @@
         <v>116</v>
       </c>
       <c r="T67" s="81"/>
-      <c r="U67" s="94" t="s">
+      <c r="U67" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="V67" s="95"/>
-      <c r="W67" s="95"/>
-      <c r="X67" s="95"/>
-      <c r="Y67" s="95"/>
-      <c r="Z67" s="95"/>
-      <c r="AA67" s="95"/>
-      <c r="AB67" s="95"/>
-      <c r="AC67" s="95"/>
-      <c r="AD67" s="95"/>
-      <c r="AE67" s="95"/>
-      <c r="AF67" s="95"/>
-      <c r="AG67" s="96"/>
+      <c r="V67" s="108"/>
+      <c r="W67" s="108"/>
+      <c r="X67" s="108"/>
+      <c r="Y67" s="108"/>
+      <c r="Z67" s="108"/>
+      <c r="AA67" s="108"/>
+      <c r="AB67" s="108"/>
+      <c r="AC67" s="108"/>
+      <c r="AD67" s="108"/>
+      <c r="AE67" s="108"/>
+      <c r="AF67" s="108"/>
+      <c r="AG67" s="109"/>
       <c r="AH67" s="63" t="s">
         <v>146</v>
       </c>
@@ -4704,21 +4707,21 @@
         <v>31</v>
       </c>
       <c r="T68" s="81"/>
-      <c r="U68" s="94" t="s">
+      <c r="U68" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="V68" s="95"/>
-      <c r="W68" s="95"/>
-      <c r="X68" s="95"/>
-      <c r="Y68" s="95"/>
-      <c r="Z68" s="95"/>
-      <c r="AA68" s="95"/>
-      <c r="AB68" s="95"/>
-      <c r="AC68" s="95"/>
-      <c r="AD68" s="95"/>
-      <c r="AE68" s="95"/>
-      <c r="AF68" s="95"/>
-      <c r="AG68" s="96"/>
+      <c r="V68" s="108"/>
+      <c r="W68" s="108"/>
+      <c r="X68" s="108"/>
+      <c r="Y68" s="108"/>
+      <c r="Z68" s="108"/>
+      <c r="AA68" s="108"/>
+      <c r="AB68" s="108"/>
+      <c r="AC68" s="108"/>
+      <c r="AD68" s="108"/>
+      <c r="AE68" s="108"/>
+      <c r="AF68" s="108"/>
+      <c r="AG68" s="109"/>
       <c r="AH68" s="63"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.45">
@@ -4756,21 +4759,21 @@
         <v>134</v>
       </c>
       <c r="T69" s="81"/>
-      <c r="U69" s="94" t="s">
+      <c r="U69" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="V69" s="95"/>
-      <c r="W69" s="95"/>
-      <c r="X69" s="95"/>
-      <c r="Y69" s="95"/>
-      <c r="Z69" s="95"/>
-      <c r="AA69" s="95"/>
-      <c r="AB69" s="95"/>
-      <c r="AC69" s="95"/>
-      <c r="AD69" s="95"/>
-      <c r="AE69" s="95"/>
-      <c r="AF69" s="95"/>
-      <c r="AG69" s="96"/>
+      <c r="V69" s="108"/>
+      <c r="W69" s="108"/>
+      <c r="X69" s="108"/>
+      <c r="Y69" s="108"/>
+      <c r="Z69" s="108"/>
+      <c r="AA69" s="108"/>
+      <c r="AB69" s="108"/>
+      <c r="AC69" s="108"/>
+      <c r="AD69" s="108"/>
+      <c r="AE69" s="108"/>
+      <c r="AF69" s="108"/>
+      <c r="AG69" s="109"/>
       <c r="AH69" s="63"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.45">
@@ -4810,21 +4813,21 @@
       <c r="T70" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="U70" s="94" t="s">
+      <c r="U70" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="V70" s="95"/>
-      <c r="W70" s="95"/>
-      <c r="X70" s="95"/>
-      <c r="Y70" s="95"/>
-      <c r="Z70" s="95"/>
-      <c r="AA70" s="95"/>
-      <c r="AB70" s="95"/>
-      <c r="AC70" s="95"/>
-      <c r="AD70" s="95"/>
-      <c r="AE70" s="95"/>
-      <c r="AF70" s="95"/>
-      <c r="AG70" s="96"/>
+      <c r="V70" s="108"/>
+      <c r="W70" s="108"/>
+      <c r="X70" s="108"/>
+      <c r="Y70" s="108"/>
+      <c r="Z70" s="108"/>
+      <c r="AA70" s="108"/>
+      <c r="AB70" s="108"/>
+      <c r="AC70" s="108"/>
+      <c r="AD70" s="108"/>
+      <c r="AE70" s="108"/>
+      <c r="AF70" s="108"/>
+      <c r="AG70" s="109"/>
       <c r="AH70" s="63" t="s">
         <v>161</v>
       </c>
@@ -4866,21 +4869,21 @@
         <v>31</v>
       </c>
       <c r="T71" s="81"/>
-      <c r="U71" s="94" t="s">
+      <c r="U71" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="V71" s="95"/>
-      <c r="W71" s="95"/>
-      <c r="X71" s="95"/>
-      <c r="Y71" s="95"/>
-      <c r="Z71" s="95"/>
-      <c r="AA71" s="95"/>
-      <c r="AB71" s="95"/>
-      <c r="AC71" s="95"/>
-      <c r="AD71" s="95"/>
-      <c r="AE71" s="95"/>
-      <c r="AF71" s="95"/>
-      <c r="AG71" s="96"/>
+      <c r="V71" s="108"/>
+      <c r="W71" s="108"/>
+      <c r="X71" s="108"/>
+      <c r="Y71" s="108"/>
+      <c r="Z71" s="108"/>
+      <c r="AA71" s="108"/>
+      <c r="AB71" s="108"/>
+      <c r="AC71" s="108"/>
+      <c r="AD71" s="108"/>
+      <c r="AE71" s="108"/>
+      <c r="AF71" s="108"/>
+      <c r="AG71" s="109"/>
       <c r="AH71" s="63"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.45">
@@ -4920,21 +4923,21 @@
         <v>31</v>
       </c>
       <c r="T72" s="81"/>
-      <c r="U72" s="94" t="s">
+      <c r="U72" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="V72" s="95"/>
-      <c r="W72" s="95"/>
-      <c r="X72" s="95"/>
-      <c r="Y72" s="95"/>
-      <c r="Z72" s="95"/>
-      <c r="AA72" s="95"/>
-      <c r="AB72" s="95"/>
-      <c r="AC72" s="95"/>
-      <c r="AD72" s="95"/>
-      <c r="AE72" s="95"/>
-      <c r="AF72" s="95"/>
-      <c r="AG72" s="96"/>
+      <c r="V72" s="108"/>
+      <c r="W72" s="108"/>
+      <c r="X72" s="108"/>
+      <c r="Y72" s="108"/>
+      <c r="Z72" s="108"/>
+      <c r="AA72" s="108"/>
+      <c r="AB72" s="108"/>
+      <c r="AC72" s="108"/>
+      <c r="AD72" s="108"/>
+      <c r="AE72" s="108"/>
+      <c r="AF72" s="108"/>
+      <c r="AG72" s="109"/>
       <c r="AH72" s="63"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.45">
@@ -4974,21 +4977,21 @@
         <v>134</v>
       </c>
       <c r="T73" s="81"/>
-      <c r="U73" s="94" t="s">
+      <c r="U73" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="V73" s="95"/>
-      <c r="W73" s="95"/>
-      <c r="X73" s="95"/>
-      <c r="Y73" s="95"/>
-      <c r="Z73" s="95"/>
-      <c r="AA73" s="95"/>
-      <c r="AB73" s="95"/>
-      <c r="AC73" s="95"/>
-      <c r="AD73" s="95"/>
-      <c r="AE73" s="95"/>
-      <c r="AF73" s="95"/>
-      <c r="AG73" s="96"/>
+      <c r="V73" s="108"/>
+      <c r="W73" s="108"/>
+      <c r="X73" s="108"/>
+      <c r="Y73" s="108"/>
+      <c r="Z73" s="108"/>
+      <c r="AA73" s="108"/>
+      <c r="AB73" s="108"/>
+      <c r="AC73" s="108"/>
+      <c r="AD73" s="108"/>
+      <c r="AE73" s="108"/>
+      <c r="AF73" s="108"/>
+      <c r="AG73" s="109"/>
       <c r="AH73" s="63"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.45">
@@ -5028,21 +5031,21 @@
         <v>116</v>
       </c>
       <c r="T74" s="81"/>
-      <c r="U74" s="94" t="s">
+      <c r="U74" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="V74" s="95"/>
-      <c r="W74" s="95"/>
-      <c r="X74" s="95"/>
-      <c r="Y74" s="95"/>
-      <c r="Z74" s="95"/>
-      <c r="AA74" s="95"/>
-      <c r="AB74" s="95"/>
-      <c r="AC74" s="95"/>
-      <c r="AD74" s="95"/>
-      <c r="AE74" s="95"/>
-      <c r="AF74" s="95"/>
-      <c r="AG74" s="96"/>
+      <c r="V74" s="108"/>
+      <c r="W74" s="108"/>
+      <c r="X74" s="108"/>
+      <c r="Y74" s="108"/>
+      <c r="Z74" s="108"/>
+      <c r="AA74" s="108"/>
+      <c r="AB74" s="108"/>
+      <c r="AC74" s="108"/>
+      <c r="AD74" s="108"/>
+      <c r="AE74" s="108"/>
+      <c r="AF74" s="108"/>
+      <c r="AG74" s="109"/>
       <c r="AH74" s="63"/>
     </row>
     <row r="75" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -5154,19 +5157,19 @@
       <c r="AH77" s="1"/>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A78" s="122" t="s">
+      <c r="A78" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="123"/>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="123"/>
-      <c r="F78" s="123"/>
-      <c r="G78" s="123"/>
-      <c r="H78" s="123"/>
-      <c r="I78" s="123"/>
-      <c r="J78" s="123"/>
-      <c r="K78" s="124"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
+      <c r="K78" s="106"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -5232,10 +5235,10 @@
       <c r="B81" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C81" s="134"/>
-      <c r="D81" s="135"/>
-      <c r="E81" s="135"/>
-      <c r="F81" s="135"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="101"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="8"/>
@@ -5296,10 +5299,10 @@
         <v>183</v>
       </c>
       <c r="B85" s="35"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
-      <c r="F85" s="136"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="102"/>
+      <c r="F85" s="102"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="8"/>
@@ -5320,45 +5323,45 @@
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A87" s="125" t="s">
+      <c r="A87" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="B87" s="126"/>
-      <c r="C87" s="126"/>
-      <c r="D87" s="126"/>
-      <c r="E87" s="126"/>
-      <c r="F87" s="126"/>
-      <c r="G87" s="126"/>
-      <c r="H87" s="126"/>
-      <c r="I87" s="126"/>
-      <c r="J87" s="126"/>
-      <c r="K87" s="127"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="92"/>
+      <c r="I87" s="92"/>
+      <c r="J87" s="92"/>
+      <c r="K87" s="93"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A88" s="128"/>
-      <c r="B88" s="129"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="129"/>
-      <c r="G88" s="129"/>
-      <c r="H88" s="129"/>
-      <c r="I88" s="129"/>
-      <c r="J88" s="129"/>
-      <c r="K88" s="130"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="95"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="95"/>
+      <c r="F88" s="95"/>
+      <c r="G88" s="95"/>
+      <c r="H88" s="95"/>
+      <c r="I88" s="95"/>
+      <c r="J88" s="95"/>
+      <c r="K88" s="96"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A89" s="131"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="132"/>
-      <c r="D89" s="132"/>
-      <c r="E89" s="132"/>
-      <c r="F89" s="132"/>
-      <c r="G89" s="132"/>
-      <c r="H89" s="132"/>
-      <c r="I89" s="132"/>
-      <c r="J89" s="132"/>
-      <c r="K89" s="133"/>
+      <c r="A89" s="97"/>
+      <c r="B89" s="98"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="98"/>
+      <c r="H89" s="98"/>
+      <c r="I89" s="98"/>
+      <c r="J89" s="98"/>
+      <c r="K89" s="99"/>
     </row>
     <row r="90" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="67"/>
@@ -5400,19 +5403,19 @@
       <c r="K92" s="4"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A93" s="122" t="s">
+      <c r="A93" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="B93" s="123"/>
-      <c r="C93" s="123"/>
-      <c r="D93" s="123"/>
-      <c r="E93" s="123"/>
-      <c r="F93" s="123"/>
-      <c r="G93" s="123"/>
-      <c r="H93" s="123"/>
-      <c r="I93" s="123"/>
-      <c r="J93" s="123"/>
-      <c r="K93" s="124"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="105"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+      <c r="I93" s="105"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="106"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="61" t="s">
@@ -5455,10 +5458,10 @@
       <c r="B96" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C96" s="134"/>
-      <c r="D96" s="135"/>
-      <c r="E96" s="135"/>
-      <c r="F96" s="135"/>
+      <c r="C96" s="100"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="101"/>
+      <c r="F96" s="101"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="8"/>
@@ -5521,10 +5524,10 @@
         <v>183</v>
       </c>
       <c r="B100" s="35"/>
-      <c r="C100" s="136"/>
-      <c r="D100" s="136"/>
-      <c r="E100" s="136"/>
-      <c r="F100" s="136"/>
+      <c r="C100" s="102"/>
+      <c r="D100" s="102"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="8"/>
@@ -5545,45 +5548,45 @@
       <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A102" s="125" t="s">
+      <c r="A102" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="B102" s="126"/>
-      <c r="C102" s="126"/>
-      <c r="D102" s="126"/>
-      <c r="E102" s="126"/>
-      <c r="F102" s="126"/>
-      <c r="G102" s="126"/>
-      <c r="H102" s="126"/>
-      <c r="I102" s="126"/>
-      <c r="J102" s="126"/>
-      <c r="K102" s="127"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="92"/>
+      <c r="J102" s="92"/>
+      <c r="K102" s="93"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A103" s="128"/>
-      <c r="B103" s="129"/>
-      <c r="C103" s="129"/>
-      <c r="D103" s="129"/>
-      <c r="E103" s="129"/>
-      <c r="F103" s="129"/>
-      <c r="G103" s="129"/>
-      <c r="H103" s="129"/>
-      <c r="I103" s="129"/>
-      <c r="J103" s="129"/>
-      <c r="K103" s="130"/>
+      <c r="A103" s="94"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="95"/>
+      <c r="G103" s="95"/>
+      <c r="H103" s="95"/>
+      <c r="I103" s="95"/>
+      <c r="J103" s="95"/>
+      <c r="K103" s="96"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A104" s="131"/>
-      <c r="B104" s="132"/>
-      <c r="C104" s="132"/>
-      <c r="D104" s="132"/>
-      <c r="E104" s="132"/>
-      <c r="F104" s="132"/>
-      <c r="G104" s="132"/>
-      <c r="H104" s="132"/>
-      <c r="I104" s="132"/>
-      <c r="J104" s="132"/>
-      <c r="K104" s="133"/>
+      <c r="A104" s="97"/>
+      <c r="B104" s="98"/>
+      <c r="C104" s="98"/>
+      <c r="D104" s="98"/>
+      <c r="E104" s="98"/>
+      <c r="F104" s="98"/>
+      <c r="G104" s="98"/>
+      <c r="H104" s="98"/>
+      <c r="I104" s="98"/>
+      <c r="J104" s="98"/>
+      <c r="K104" s="99"/>
     </row>
     <row r="105" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="67"/>
@@ -5625,19 +5628,19 @@
       <c r="K107" s="4"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A108" s="123" t="s">
+      <c r="A108" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="B108" s="123"/>
-      <c r="C108" s="123"/>
-      <c r="D108" s="123"/>
-      <c r="E108" s="123"/>
-      <c r="F108" s="123"/>
-      <c r="G108" s="123"/>
-      <c r="H108" s="123"/>
-      <c r="I108" s="123"/>
-      <c r="J108" s="123"/>
-      <c r="K108" s="124"/>
+      <c r="B108" s="105"/>
+      <c r="C108" s="105"/>
+      <c r="D108" s="105"/>
+      <c r="E108" s="105"/>
+      <c r="F108" s="105"/>
+      <c r="G108" s="105"/>
+      <c r="H108" s="105"/>
+      <c r="I108" s="105"/>
+      <c r="J108" s="105"/>
+      <c r="K108" s="106"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="61" t="s">
@@ -5680,10 +5683,10 @@
       <c r="B111" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="134"/>
-      <c r="D111" s="135"/>
-      <c r="E111" s="135"/>
-      <c r="F111" s="135"/>
+      <c r="C111" s="100"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="101"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="8"/>
@@ -5746,10 +5749,10 @@
         <v>183</v>
       </c>
       <c r="B115" s="35"/>
-      <c r="C115" s="137"/>
-      <c r="D115" s="136"/>
-      <c r="E115" s="136"/>
-      <c r="F115" s="136"/>
+      <c r="C115" s="103"/>
+      <c r="D115" s="102"/>
+      <c r="E115" s="102"/>
+      <c r="F115" s="102"/>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="8"/>
@@ -5770,45 +5773,45 @@
       <c r="K116" s="12"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A117" s="125" t="s">
+      <c r="A117" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="B117" s="126"/>
-      <c r="C117" s="126"/>
-      <c r="D117" s="126"/>
-      <c r="E117" s="126"/>
-      <c r="F117" s="126"/>
-      <c r="G117" s="126"/>
-      <c r="H117" s="126"/>
-      <c r="I117" s="126"/>
-      <c r="J117" s="126"/>
-      <c r="K117" s="127"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="92"/>
+      <c r="F117" s="92"/>
+      <c r="G117" s="92"/>
+      <c r="H117" s="92"/>
+      <c r="I117" s="92"/>
+      <c r="J117" s="92"/>
+      <c r="K117" s="93"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A118" s="128"/>
-      <c r="B118" s="129"/>
-      <c r="C118" s="129"/>
-      <c r="D118" s="129"/>
-      <c r="E118" s="129"/>
-      <c r="F118" s="129"/>
-      <c r="G118" s="129"/>
-      <c r="H118" s="129"/>
-      <c r="I118" s="129"/>
-      <c r="J118" s="129"/>
-      <c r="K118" s="130"/>
+      <c r="A118" s="94"/>
+      <c r="B118" s="95"/>
+      <c r="C118" s="95"/>
+      <c r="D118" s="95"/>
+      <c r="E118" s="95"/>
+      <c r="F118" s="95"/>
+      <c r="G118" s="95"/>
+      <c r="H118" s="95"/>
+      <c r="I118" s="95"/>
+      <c r="J118" s="95"/>
+      <c r="K118" s="96"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A119" s="131"/>
-      <c r="B119" s="132"/>
-      <c r="C119" s="132"/>
-      <c r="D119" s="132"/>
-      <c r="E119" s="132"/>
-      <c r="F119" s="132"/>
-      <c r="G119" s="132"/>
-      <c r="H119" s="132"/>
-      <c r="I119" s="132"/>
-      <c r="J119" s="132"/>
-      <c r="K119" s="133"/>
+      <c r="A119" s="97"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="98"/>
+      <c r="D119" s="98"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="98"/>
+      <c r="H119" s="98"/>
+      <c r="I119" s="98"/>
+      <c r="J119" s="98"/>
+      <c r="K119" s="99"/>
     </row>
     <row r="120" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="42"/>
@@ -5825,24 +5828,32 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A117:K119"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A102:K104"/>
-    <mergeCell ref="A108:K108"/>
-    <mergeCell ref="U73:AG73"/>
-    <mergeCell ref="U74:AG74"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="A87:K89"/>
-    <mergeCell ref="U68:AG68"/>
-    <mergeCell ref="U69:AG69"/>
-    <mergeCell ref="U71:AG71"/>
-    <mergeCell ref="U72:AG72"/>
-    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D39:I39"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="C47:E47"/>
@@ -5859,32 +5870,24 @@
     <mergeCell ref="U65:AG65"/>
     <mergeCell ref="U66:AG66"/>
     <mergeCell ref="U67:AG67"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="U68:AG68"/>
+    <mergeCell ref="U69:AG69"/>
+    <mergeCell ref="U71:AG71"/>
+    <mergeCell ref="U72:AG72"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A102:K104"/>
+    <mergeCell ref="A108:K108"/>
+    <mergeCell ref="U73:AG73"/>
+    <mergeCell ref="U74:AG74"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="A87:K89"/>
+    <mergeCell ref="A117:K119"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C115:F115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MNE-portal-app/reports/SG-MNE1_FY2017.xlsx
+++ b/MNE-portal-app/reports/SG-MNE1_FY2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stepp\Documents\Y3 SEM2\IS4302 BLOCKCHAIN AND DISTRIBUTED LEDGER TECHNOLOGIES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stepp\IS4302-Tut2Grp3-CbCR-via-blockchain\MNE-portal-app\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,9 +29,6 @@
     <t>Tax Reference Number of Reporting Entity: *</t>
   </si>
   <si>
-    <t>199XXXXXXK</t>
-  </si>
-  <si>
     <t>Transmitting Country: *</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>Message Reference ID: *</t>
-  </si>
-  <si>
-    <t>199XXXXXXK.2017121208305501</t>
   </si>
   <si>
     <t>Message Type Indicator: *</t>
@@ -673,7 +667,13 @@
     <t>The Revenue figures exclude an extraordinary gain from the sales of two landed properties in Australia and New Zealands.</t>
   </si>
   <si>
-    <t>113XXXXXXK</t>
+    <t>113888888K</t>
+  </si>
+  <si>
+    <t>113888888K.2017121208305501</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
   </si>
 </sst>
 </file>
@@ -1356,6 +1356,108 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1394,108 +1496,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1780,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1826,12 +1826,12 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:34" ht="58.15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" ht="58.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="20"/>
@@ -1864,12 +1864,12 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:34" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="22"/>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="4" spans="1:34" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A4" s="61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="22"/>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="5" spans="1:34" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A5" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="22"/>
@@ -1980,10 +1980,10 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="22"/>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" s="61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="12"/>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="8" spans="1:34" ht="81.400000000000006" x14ac:dyDescent="0.45">
       <c r="A8" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="22"/>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" s="61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="22"/>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A10" s="61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="22"/>
@@ -2168,14 +2168,14 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11" s="61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -2204,10 +2204,10 @@
     </row>
     <row r="12" spans="1:34" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A12" s="61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="18"/>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" s="61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="18"/>
@@ -2352,11 +2352,11 @@
       <c r="A16" s="46"/>
       <c r="B16" s="76"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -2386,17 +2386,17 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17" s="59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2426,17 +2426,17 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A18" s="59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -2466,17 +2466,17 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A19" s="59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -2506,15 +2506,15 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A20" s="59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21" s="59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="24"/>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A22" s="59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="77"/>
       <c r="C22" s="24"/>
@@ -2620,17 +2620,17 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23" s="59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -2660,17 +2660,17 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A24" s="59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -2700,17 +2700,17 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A25" s="59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
@@ -2740,15 +2740,15 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A26" s="59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="77"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
@@ -2778,17 +2778,17 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A27" s="60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
@@ -2818,17 +2818,17 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A28" s="60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
@@ -2858,17 +2858,17 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A29" s="60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="79">
         <v>10</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
@@ -2898,17 +2898,17 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A30" s="60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="79">
         <v>10</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
@@ -2938,15 +2938,15 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A31" s="60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="77"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
@@ -2976,15 +2976,15 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A32" s="60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="77"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
@@ -3014,17 +3014,17 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A33" s="60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="77">
         <v>523110</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
@@ -3054,17 +3054,17 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A34" s="60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
@@ -3094,15 +3094,15 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A35" s="60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="77"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
@@ -3132,15 +3132,15 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A36" s="59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="77"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
@@ -3170,17 +3170,17 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A37" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" s="77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
@@ -3210,18 +3210,18 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A38" s="59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
@@ -3250,18 +3250,18 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A39" s="61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" s="77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
@@ -3290,16 +3290,16 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A40" s="61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40" s="80"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
@@ -3399,23 +3399,23 @@
       <c r="AH42" s="19"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A43" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="115"/>
-      <c r="N43" s="115"/>
-      <c r="O43" s="116"/>
+      <c r="A43" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="93"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3474,15 +3474,15 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A45" s="52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="112"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
+        <v>26</v>
+      </c>
+      <c r="C45" s="108"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A46" s="52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -3554,14 +3554,14 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A47" s="52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
+        <v>55</v>
+      </c>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -3633,11 +3633,11 @@
       <c r="B49" s="53"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="108"/>
-      <c r="G49" s="109"/>
+      <c r="E49" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="95"/>
+      <c r="G49" s="96"/>
       <c r="H49" s="10"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -3668,46 +3668,46 @@
     </row>
     <row r="50" spans="1:34" ht="151.15" x14ac:dyDescent="0.45">
       <c r="A50" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="D50" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="E50" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="F50" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="71" t="s">
+      <c r="G50" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="71" t="s">
+      <c r="H50" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="71" t="s">
+      <c r="I50" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="71" t="s">
+      <c r="J50" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="71" t="s">
+      <c r="K50" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="J50" s="71" t="s">
+      <c r="L50" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="K50" s="71" t="s">
+      <c r="M50" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="L50" s="71" t="s">
+      <c r="N50" s="71" t="s">
         <v>70</v>
-      </c>
-      <c r="M50" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="N50" s="71" t="s">
-        <v>72</v>
       </c>
       <c r="O50" s="72"/>
       <c r="P50" s="73"/>
@@ -3732,14 +3732,14 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A51" s="75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E51" s="71">
         <v>700000000</v>
@@ -3794,14 +3794,14 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A52" s="75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E52" s="71">
         <v>0</v>
@@ -3856,14 +3856,14 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A53" s="75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E53" s="71">
         <v>600000000</v>
@@ -3918,14 +3918,14 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A54" s="75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E54" s="71">
         <v>80000</v>
@@ -3980,14 +3980,14 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A55" s="75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="71">
         <v>12345679000</v>
@@ -4113,49 +4113,49 @@
       <c r="AH57" s="19"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A58" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="115"/>
-      <c r="L58" s="115"/>
-      <c r="M58" s="115"/>
-      <c r="N58" s="115"/>
-      <c r="O58" s="115"/>
-      <c r="P58" s="115"/>
-      <c r="Q58" s="115"/>
-      <c r="R58" s="115"/>
-      <c r="S58" s="115"/>
-      <c r="T58" s="115"/>
-      <c r="U58" s="115"/>
-      <c r="V58" s="115"/>
-      <c r="W58" s="115"/>
-      <c r="X58" s="115"/>
-      <c r="Y58" s="115"/>
-      <c r="Z58" s="115"/>
-      <c r="AA58" s="115"/>
-      <c r="AB58" s="115"/>
-      <c r="AC58" s="115"/>
-      <c r="AD58" s="115"/>
-      <c r="AE58" s="115"/>
-      <c r="AF58" s="115"/>
-      <c r="AG58" s="115"/>
-      <c r="AH58" s="116"/>
+      <c r="A58" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="92"/>
+      <c r="M58" s="92"/>
+      <c r="N58" s="92"/>
+      <c r="O58" s="92"/>
+      <c r="P58" s="92"/>
+      <c r="Q58" s="92"/>
+      <c r="R58" s="92"/>
+      <c r="S58" s="92"/>
+      <c r="T58" s="92"/>
+      <c r="U58" s="92"/>
+      <c r="V58" s="92"/>
+      <c r="W58" s="92"/>
+      <c r="X58" s="92"/>
+      <c r="Y58" s="92"/>
+      <c r="Z58" s="92"/>
+      <c r="AA58" s="92"/>
+      <c r="AB58" s="92"/>
+      <c r="AC58" s="92"/>
+      <c r="AD58" s="92"/>
+      <c r="AE58" s="92"/>
+      <c r="AF58" s="92"/>
+      <c r="AG58" s="92"/>
+      <c r="AH58" s="93"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A59" s="52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A60" s="52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -4238,208 +4238,208 @@
       <c r="E61" s="86"/>
       <c r="F61" s="86"/>
       <c r="G61" s="86"/>
-      <c r="H61" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="I61" s="117"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
-      <c r="M61" s="117"/>
-      <c r="N61" s="117"/>
-      <c r="O61" s="117"/>
-      <c r="P61" s="117"/>
-      <c r="Q61" s="117"/>
-      <c r="R61" s="117"/>
-      <c r="S61" s="117"/>
+      <c r="H61" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="109"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="109"/>
+      <c r="L61" s="109"/>
+      <c r="M61" s="109"/>
+      <c r="N61" s="109"/>
+      <c r="O61" s="109"/>
+      <c r="P61" s="109"/>
+      <c r="Q61" s="109"/>
+      <c r="R61" s="109"/>
+      <c r="S61" s="109"/>
       <c r="T61" s="87"/>
-      <c r="U61" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="V61" s="125"/>
-      <c r="W61" s="125"/>
-      <c r="X61" s="125"/>
-      <c r="Y61" s="125"/>
-      <c r="Z61" s="125"/>
-      <c r="AA61" s="125"/>
-      <c r="AB61" s="125"/>
-      <c r="AC61" s="125"/>
-      <c r="AD61" s="125"/>
-      <c r="AE61" s="125"/>
-      <c r="AF61" s="125"/>
-      <c r="AG61" s="126"/>
+      <c r="U61" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="V61" s="117"/>
+      <c r="W61" s="117"/>
+      <c r="X61" s="117"/>
+      <c r="Y61" s="117"/>
+      <c r="Z61" s="117"/>
+      <c r="AA61" s="117"/>
+      <c r="AB61" s="117"/>
+      <c r="AC61" s="117"/>
+      <c r="AD61" s="117"/>
+      <c r="AE61" s="117"/>
+      <c r="AF61" s="117"/>
+      <c r="AG61" s="118"/>
       <c r="AH61" s="88"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A62" s="82"/>
       <c r="B62" s="82"/>
-      <c r="C62" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="118"/>
-      <c r="E62" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" s="134"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="119" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="121" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" s="122"/>
-      <c r="K62" s="122"/>
-      <c r="L62" s="122"/>
-      <c r="M62" s="122"/>
-      <c r="N62" s="122"/>
-      <c r="O62" s="122"/>
-      <c r="P62" s="122"/>
-      <c r="Q62" s="123"/>
-      <c r="R62" s="119" t="s">
-        <v>45</v>
-      </c>
-      <c r="S62" s="119" t="s">
+      <c r="C62" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="110"/>
+      <c r="E62" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="98"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="113" t="s">
         <v>30</v>
       </c>
+      <c r="J62" s="114"/>
+      <c r="K62" s="114"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="114"/>
+      <c r="N62" s="114"/>
+      <c r="O62" s="114"/>
+      <c r="P62" s="114"/>
+      <c r="Q62" s="115"/>
+      <c r="R62" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="S62" s="111" t="s">
+        <v>28</v>
+      </c>
       <c r="T62" s="82"/>
-      <c r="U62" s="127"/>
-      <c r="V62" s="128"/>
-      <c r="W62" s="128"/>
-      <c r="X62" s="128"/>
-      <c r="Y62" s="128"/>
-      <c r="Z62" s="128"/>
-      <c r="AA62" s="128"/>
-      <c r="AB62" s="128"/>
-      <c r="AC62" s="128"/>
-      <c r="AD62" s="128"/>
-      <c r="AE62" s="128"/>
-      <c r="AF62" s="128"/>
-      <c r="AG62" s="129"/>
+      <c r="U62" s="119"/>
+      <c r="V62" s="120"/>
+      <c r="W62" s="120"/>
+      <c r="X62" s="120"/>
+      <c r="Y62" s="120"/>
+      <c r="Z62" s="120"/>
+      <c r="AA62" s="120"/>
+      <c r="AB62" s="120"/>
+      <c r="AC62" s="120"/>
+      <c r="AD62" s="120"/>
+      <c r="AE62" s="120"/>
+      <c r="AF62" s="120"/>
+      <c r="AG62" s="121"/>
       <c r="AH62" s="89"/>
     </row>
     <row r="63" spans="1:34" ht="164.65" x14ac:dyDescent="0.45">
       <c r="A63" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="68" t="s">
+      <c r="D63" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="83" t="s">
+      <c r="E63" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="83" t="s">
+      <c r="G63" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="E63" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="F63" s="83" t="s">
+      <c r="H63" s="112"/>
+      <c r="I63" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="M63" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="N63" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="G63" s="83" t="s">
+      <c r="O63" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="120"/>
-      <c r="I63" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="J63" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="K63" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="L63" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="M63" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="N63" s="84" t="s">
+      <c r="P63" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q63" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="R63" s="112"/>
+      <c r="S63" s="112"/>
+      <c r="T63" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="O63" s="84" t="s">
+      <c r="U63" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="P63" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q63" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="R63" s="120"/>
-      <c r="S63" s="120"/>
-      <c r="T63" s="68" t="s">
+      <c r="V63" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="U63" s="69" t="s">
+      <c r="W63" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="V63" s="69" t="s">
+      <c r="X63" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="W63" s="69" t="s">
+      <c r="Y63" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="X63" s="69" t="s">
+      <c r="Z63" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="Y63" s="69" t="s">
+      <c r="AA63" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="Z63" s="69" t="s">
+      <c r="AB63" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="AA63" s="69" t="s">
+      <c r="AC63" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="AB63" s="69" t="s">
+      <c r="AD63" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="AC63" s="69" t="s">
+      <c r="AE63" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="AD63" s="69" t="s">
+      <c r="AF63" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="AE63" s="69" t="s">
+      <c r="AG63" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="AF63" s="69" t="s">
+      <c r="AH63" s="70" t="s">
         <v>106</v>
-      </c>
-      <c r="AG63" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH63" s="70" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A64" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B64" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="F64" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E64" s="30" t="s">
+      <c r="G64" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>113</v>
-      </c>
       <c r="H64" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
@@ -4449,59 +4449,59 @@
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
       <c r="P64" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q64" s="32"/>
       <c r="R64" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="S64" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T64" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="S64" s="32" t="s">
+      <c r="U64" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="T64" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="U64" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="V64" s="108"/>
-      <c r="W64" s="108"/>
-      <c r="X64" s="108"/>
-      <c r="Y64" s="108"/>
-      <c r="Z64" s="108"/>
-      <c r="AA64" s="108"/>
-      <c r="AB64" s="108"/>
-      <c r="AC64" s="108"/>
-      <c r="AD64" s="108"/>
-      <c r="AE64" s="108"/>
-      <c r="AF64" s="108"/>
-      <c r="AG64" s="109"/>
+      <c r="V64" s="95"/>
+      <c r="W64" s="95"/>
+      <c r="X64" s="95"/>
+      <c r="Y64" s="95"/>
+      <c r="Z64" s="95"/>
+      <c r="AA64" s="95"/>
+      <c r="AB64" s="95"/>
+      <c r="AC64" s="95"/>
+      <c r="AD64" s="95"/>
+      <c r="AE64" s="95"/>
+      <c r="AF64" s="95"/>
+      <c r="AG64" s="96"/>
       <c r="AH64" s="63"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B65" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="F65" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="30" t="s">
+      <c r="G65" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="F65" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="H65" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I65" s="32"/>
       <c r="J65" s="32"/>
@@ -4511,57 +4511,57 @@
       <c r="N65" s="32"/>
       <c r="O65" s="32"/>
       <c r="P65" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q65" s="32"/>
       <c r="R65" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S65" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T65" s="81"/>
-      <c r="U65" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="V65" s="108"/>
-      <c r="W65" s="108"/>
-      <c r="X65" s="108"/>
-      <c r="Y65" s="108"/>
-      <c r="Z65" s="108"/>
-      <c r="AA65" s="108"/>
-      <c r="AB65" s="108"/>
-      <c r="AC65" s="108"/>
-      <c r="AD65" s="108"/>
-      <c r="AE65" s="108"/>
-      <c r="AF65" s="108"/>
-      <c r="AG65" s="109"/>
+      <c r="U65" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="V65" s="95"/>
+      <c r="W65" s="95"/>
+      <c r="X65" s="95"/>
+      <c r="Y65" s="95"/>
+      <c r="Z65" s="95"/>
+      <c r="AA65" s="95"/>
+      <c r="AB65" s="95"/>
+      <c r="AC65" s="95"/>
+      <c r="AD65" s="95"/>
+      <c r="AE65" s="95"/>
+      <c r="AF65" s="95"/>
+      <c r="AG65" s="96"/>
       <c r="AH65" s="63"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A66" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B66" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="F66" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="30" t="s">
+      <c r="G66" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="F66" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" s="31" t="s">
-        <v>131</v>
-      </c>
       <c r="H66" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
@@ -4571,60 +4571,60 @@
       <c r="N66" s="32"/>
       <c r="O66" s="32"/>
       <c r="P66" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q66" s="32"/>
       <c r="R66" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="S66" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="T66" s="81"/>
+      <c r="U66" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="S66" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="T66" s="81"/>
-      <c r="U66" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="V66" s="108"/>
-      <c r="W66" s="108"/>
-      <c r="X66" s="108"/>
-      <c r="Y66" s="108"/>
-      <c r="Z66" s="108"/>
-      <c r="AA66" s="108"/>
-      <c r="AB66" s="108"/>
-      <c r="AC66" s="108"/>
-      <c r="AD66" s="108"/>
-      <c r="AE66" s="108"/>
-      <c r="AF66" s="108"/>
-      <c r="AG66" s="109"/>
+      <c r="V66" s="95"/>
+      <c r="W66" s="95"/>
+      <c r="X66" s="95"/>
+      <c r="Y66" s="95"/>
+      <c r="Z66" s="95"/>
+      <c r="AA66" s="95"/>
+      <c r="AB66" s="95"/>
+      <c r="AC66" s="95"/>
+      <c r="AD66" s="95"/>
+      <c r="AE66" s="95"/>
+      <c r="AF66" s="95"/>
+      <c r="AG66" s="96"/>
       <c r="AH66" s="63"/>
     </row>
     <row r="67" spans="1:34" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A67" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B67" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="F67" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="30" t="s">
+      <c r="G67" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="H67" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="G67" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="H67" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="I67" s="33" t="s">
-        <v>141</v>
       </c>
       <c r="J67" s="32"/>
       <c r="K67" s="32">
@@ -4636,56 +4636,56 @@
       <c r="M67" s="32"/>
       <c r="N67" s="32"/>
       <c r="O67" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="P67" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q67" s="32" t="s">
         <v>142</v>
-      </c>
-      <c r="P67" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q67" s="32" t="s">
-        <v>144</v>
       </c>
       <c r="R67" s="32"/>
       <c r="S67" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T67" s="81"/>
-      <c r="U67" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="V67" s="108"/>
-      <c r="W67" s="108"/>
-      <c r="X67" s="108"/>
-      <c r="Y67" s="108"/>
-      <c r="Z67" s="108"/>
-      <c r="AA67" s="108"/>
-      <c r="AB67" s="108"/>
-      <c r="AC67" s="108"/>
-      <c r="AD67" s="108"/>
-      <c r="AE67" s="108"/>
-      <c r="AF67" s="108"/>
-      <c r="AG67" s="109"/>
+      <c r="U67" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="V67" s="95"/>
+      <c r="W67" s="95"/>
+      <c r="X67" s="95"/>
+      <c r="Y67" s="95"/>
+      <c r="Z67" s="95"/>
+      <c r="AA67" s="95"/>
+      <c r="AB67" s="95"/>
+      <c r="AC67" s="95"/>
+      <c r="AD67" s="95"/>
+      <c r="AE67" s="95"/>
+      <c r="AF67" s="95"/>
+      <c r="AG67" s="96"/>
       <c r="AH67" s="63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A68" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E68" s="30"/>
       <c r="F68" s="36"/>
       <c r="G68" s="31"/>
       <c r="H68" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
@@ -4695,51 +4695,51 @@
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q68" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="R68" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="S68" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="T68" s="81"/>
+      <c r="U68" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="Q68" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="R68" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="S68" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="T68" s="81"/>
-      <c r="U68" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="V68" s="108"/>
-      <c r="W68" s="108"/>
-      <c r="X68" s="108"/>
-      <c r="Y68" s="108"/>
-      <c r="Z68" s="108"/>
-      <c r="AA68" s="108"/>
-      <c r="AB68" s="108"/>
-      <c r="AC68" s="108"/>
-      <c r="AD68" s="108"/>
-      <c r="AE68" s="108"/>
-      <c r="AF68" s="108"/>
-      <c r="AG68" s="109"/>
+      <c r="V68" s="95"/>
+      <c r="W68" s="95"/>
+      <c r="X68" s="95"/>
+      <c r="Y68" s="95"/>
+      <c r="Z68" s="95"/>
+      <c r="AA68" s="95"/>
+      <c r="AB68" s="95"/>
+      <c r="AC68" s="95"/>
+      <c r="AD68" s="95"/>
+      <c r="AE68" s="95"/>
+      <c r="AF68" s="95"/>
+      <c r="AG68" s="96"/>
       <c r="AH68" s="63"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A69" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D69" s="36"/>
       <c r="E69" s="30"/>
       <c r="F69" s="36"/>
       <c r="G69" s="31"/>
       <c r="H69" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I69" s="32"/>
       <c r="J69" s="32"/>
@@ -4749,49 +4749,49 @@
       <c r="N69" s="32"/>
       <c r="O69" s="32"/>
       <c r="P69" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q69" s="32"/>
       <c r="R69" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S69" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T69" s="81"/>
-      <c r="U69" s="107" t="s">
-        <v>156</v>
-      </c>
-      <c r="V69" s="108"/>
-      <c r="W69" s="108"/>
-      <c r="X69" s="108"/>
-      <c r="Y69" s="108"/>
-      <c r="Z69" s="108"/>
-      <c r="AA69" s="108"/>
-      <c r="AB69" s="108"/>
-      <c r="AC69" s="108"/>
-      <c r="AD69" s="108"/>
-      <c r="AE69" s="108"/>
-      <c r="AF69" s="108"/>
-      <c r="AG69" s="109"/>
+      <c r="U69" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="V69" s="95"/>
+      <c r="W69" s="95"/>
+      <c r="X69" s="95"/>
+      <c r="Y69" s="95"/>
+      <c r="Z69" s="95"/>
+      <c r="AA69" s="95"/>
+      <c r="AB69" s="95"/>
+      <c r="AC69" s="95"/>
+      <c r="AD69" s="95"/>
+      <c r="AE69" s="95"/>
+      <c r="AF69" s="95"/>
+      <c r="AG69" s="96"/>
       <c r="AH69" s="63"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A70" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D70" s="36"/>
       <c r="E70" s="30"/>
       <c r="F70" s="36"/>
       <c r="G70" s="31"/>
       <c r="H70" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
@@ -4801,55 +4801,55 @@
       <c r="N70" s="32"/>
       <c r="O70" s="32"/>
       <c r="P70" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q70" s="32"/>
       <c r="R70" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="S70" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="T70" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="U70" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="V70" s="95"/>
+      <c r="W70" s="95"/>
+      <c r="X70" s="95"/>
+      <c r="Y70" s="95"/>
+      <c r="Z70" s="95"/>
+      <c r="AA70" s="95"/>
+      <c r="AB70" s="95"/>
+      <c r="AC70" s="95"/>
+      <c r="AD70" s="95"/>
+      <c r="AE70" s="95"/>
+      <c r="AF70" s="95"/>
+      <c r="AG70" s="96"/>
+      <c r="AH70" s="63" t="s">
         <v>159</v>
-      </c>
-      <c r="S70" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="T70" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="U70" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="V70" s="108"/>
-      <c r="W70" s="108"/>
-      <c r="X70" s="108"/>
-      <c r="Y70" s="108"/>
-      <c r="Z70" s="108"/>
-      <c r="AA70" s="108"/>
-      <c r="AB70" s="108"/>
-      <c r="AC70" s="108"/>
-      <c r="AD70" s="108"/>
-      <c r="AE70" s="108"/>
-      <c r="AF70" s="108"/>
-      <c r="AG70" s="109"/>
-      <c r="AH70" s="63" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A71" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" s="30"/>
       <c r="F71" s="36"/>
       <c r="G71" s="31"/>
       <c r="H71" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" s="32"/>
       <c r="J71" s="32"/>
@@ -4859,51 +4859,51 @@
       <c r="N71" s="32"/>
       <c r="O71" s="32"/>
       <c r="P71" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q71" s="32"/>
       <c r="R71" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S71" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T71" s="81"/>
-      <c r="U71" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="V71" s="108"/>
-      <c r="W71" s="108"/>
-      <c r="X71" s="108"/>
-      <c r="Y71" s="108"/>
-      <c r="Z71" s="108"/>
-      <c r="AA71" s="108"/>
-      <c r="AB71" s="108"/>
-      <c r="AC71" s="108"/>
-      <c r="AD71" s="108"/>
-      <c r="AE71" s="108"/>
-      <c r="AF71" s="108"/>
-      <c r="AG71" s="109"/>
+      <c r="U71" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="V71" s="95"/>
+      <c r="W71" s="95"/>
+      <c r="X71" s="95"/>
+      <c r="Y71" s="95"/>
+      <c r="Z71" s="95"/>
+      <c r="AA71" s="95"/>
+      <c r="AB71" s="95"/>
+      <c r="AC71" s="95"/>
+      <c r="AD71" s="95"/>
+      <c r="AE71" s="95"/>
+      <c r="AF71" s="95"/>
+      <c r="AG71" s="96"/>
       <c r="AH71" s="63"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A72" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" s="30"/>
       <c r="F72" s="36"/>
       <c r="G72" s="31"/>
       <c r="H72" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" s="32"/>
       <c r="J72" s="32"/>
@@ -4913,51 +4913,51 @@
       <c r="N72" s="32"/>
       <c r="O72" s="32"/>
       <c r="P72" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q72" s="32"/>
       <c r="R72" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S72" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T72" s="81"/>
-      <c r="U72" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="V72" s="108"/>
-      <c r="W72" s="108"/>
-      <c r="X72" s="108"/>
-      <c r="Y72" s="108"/>
-      <c r="Z72" s="108"/>
-      <c r="AA72" s="108"/>
-      <c r="AB72" s="108"/>
-      <c r="AC72" s="108"/>
-      <c r="AD72" s="108"/>
-      <c r="AE72" s="108"/>
-      <c r="AF72" s="108"/>
-      <c r="AG72" s="109"/>
+      <c r="U72" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="V72" s="95"/>
+      <c r="W72" s="95"/>
+      <c r="X72" s="95"/>
+      <c r="Y72" s="95"/>
+      <c r="Z72" s="95"/>
+      <c r="AA72" s="95"/>
+      <c r="AB72" s="95"/>
+      <c r="AC72" s="95"/>
+      <c r="AD72" s="95"/>
+      <c r="AE72" s="95"/>
+      <c r="AF72" s="95"/>
+      <c r="AG72" s="96"/>
       <c r="AH72" s="63"/>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A73" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="36"/>
       <c r="G73" s="31"/>
       <c r="H73" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
@@ -4967,51 +4967,51 @@
       <c r="N73" s="32"/>
       <c r="O73" s="32"/>
       <c r="P73" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q73" s="32"/>
       <c r="R73" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S73" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T73" s="81"/>
-      <c r="U73" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="V73" s="108"/>
-      <c r="W73" s="108"/>
-      <c r="X73" s="108"/>
-      <c r="Y73" s="108"/>
-      <c r="Z73" s="108"/>
-      <c r="AA73" s="108"/>
-      <c r="AB73" s="108"/>
-      <c r="AC73" s="108"/>
-      <c r="AD73" s="108"/>
-      <c r="AE73" s="108"/>
-      <c r="AF73" s="108"/>
-      <c r="AG73" s="109"/>
+      <c r="U73" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="V73" s="95"/>
+      <c r="W73" s="95"/>
+      <c r="X73" s="95"/>
+      <c r="Y73" s="95"/>
+      <c r="Z73" s="95"/>
+      <c r="AA73" s="95"/>
+      <c r="AB73" s="95"/>
+      <c r="AC73" s="95"/>
+      <c r="AD73" s="95"/>
+      <c r="AE73" s="95"/>
+      <c r="AF73" s="95"/>
+      <c r="AG73" s="96"/>
       <c r="AH73" s="63"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A74" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" s="30"/>
       <c r="F74" s="36"/>
       <c r="G74" s="31"/>
       <c r="H74" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" s="32"/>
       <c r="J74" s="32"/>
@@ -5021,31 +5021,31 @@
       <c r="N74" s="32"/>
       <c r="O74" s="32"/>
       <c r="P74" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q74" s="32"/>
       <c r="R74" s="32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S74" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T74" s="81"/>
-      <c r="U74" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="V74" s="108"/>
-      <c r="W74" s="108"/>
-      <c r="X74" s="108"/>
-      <c r="Y74" s="108"/>
-      <c r="Z74" s="108"/>
-      <c r="AA74" s="108"/>
-      <c r="AB74" s="108"/>
-      <c r="AC74" s="108"/>
-      <c r="AD74" s="108"/>
-      <c r="AE74" s="108"/>
-      <c r="AF74" s="108"/>
-      <c r="AG74" s="109"/>
+      <c r="U74" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="V74" s="95"/>
+      <c r="W74" s="95"/>
+      <c r="X74" s="95"/>
+      <c r="Y74" s="95"/>
+      <c r="Z74" s="95"/>
+      <c r="AA74" s="95"/>
+      <c r="AB74" s="95"/>
+      <c r="AC74" s="95"/>
+      <c r="AD74" s="95"/>
+      <c r="AE74" s="95"/>
+      <c r="AF74" s="95"/>
+      <c r="AG74" s="96"/>
       <c r="AH74" s="63"/>
     </row>
     <row r="75" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -5157,19 +5157,19 @@
       <c r="AH77" s="1"/>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A78" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="B78" s="105"/>
-      <c r="C78" s="105"/>
-      <c r="D78" s="105"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="105"/>
-      <c r="I78" s="105"/>
-      <c r="J78" s="105"/>
-      <c r="K78" s="106"/>
+      <c r="A78" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="123"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="123"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="123"/>
+      <c r="K78" s="124"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -5196,10 +5196,10 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A79" s="61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -5213,10 +5213,10 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A80" s="61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -5230,15 +5230,15 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C81" s="100"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
-      <c r="F81" s="101"/>
+        <v>178</v>
+      </c>
+      <c r="C81" s="134"/>
+      <c r="D81" s="135"/>
+      <c r="E81" s="135"/>
+      <c r="F81" s="135"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="8"/>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="16"/>
@@ -5262,10 +5262,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B83" s="90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -5279,10 +5279,10 @@
     </row>
     <row r="84" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A84" s="65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B84" s="80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -5296,13 +5296,13 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" s="35"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="102"/>
-      <c r="E85" s="102"/>
-      <c r="F85" s="102"/>
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="136"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="8"/>
@@ -5323,45 +5323,45 @@
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A87" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="92"/>
-      <c r="G87" s="92"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="92"/>
-      <c r="J87" s="92"/>
-      <c r="K87" s="93"/>
+      <c r="A87" s="125" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="126"/>
+      <c r="C87" s="126"/>
+      <c r="D87" s="126"/>
+      <c r="E87" s="126"/>
+      <c r="F87" s="126"/>
+      <c r="G87" s="126"/>
+      <c r="H87" s="126"/>
+      <c r="I87" s="126"/>
+      <c r="J87" s="126"/>
+      <c r="K87" s="127"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A88" s="94"/>
-      <c r="B88" s="95"/>
-      <c r="C88" s="95"/>
-      <c r="D88" s="95"/>
-      <c r="E88" s="95"/>
-      <c r="F88" s="95"/>
-      <c r="G88" s="95"/>
-      <c r="H88" s="95"/>
-      <c r="I88" s="95"/>
-      <c r="J88" s="95"/>
-      <c r="K88" s="96"/>
+      <c r="A88" s="128"/>
+      <c r="B88" s="129"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="129"/>
+      <c r="E88" s="129"/>
+      <c r="F88" s="129"/>
+      <c r="G88" s="129"/>
+      <c r="H88" s="129"/>
+      <c r="I88" s="129"/>
+      <c r="J88" s="129"/>
+      <c r="K88" s="130"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A89" s="97"/>
-      <c r="B89" s="98"/>
-      <c r="C89" s="98"/>
-      <c r="D89" s="98"/>
-      <c r="E89" s="98"/>
-      <c r="F89" s="98"/>
-      <c r="G89" s="98"/>
-      <c r="H89" s="98"/>
-      <c r="I89" s="98"/>
-      <c r="J89" s="98"/>
-      <c r="K89" s="99"/>
+      <c r="A89" s="131"/>
+      <c r="B89" s="132"/>
+      <c r="C89" s="132"/>
+      <c r="D89" s="132"/>
+      <c r="E89" s="132"/>
+      <c r="F89" s="132"/>
+      <c r="G89" s="132"/>
+      <c r="H89" s="132"/>
+      <c r="I89" s="132"/>
+      <c r="J89" s="132"/>
+      <c r="K89" s="133"/>
     </row>
     <row r="90" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="67"/>
@@ -5403,26 +5403,26 @@
       <c r="K92" s="4"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A93" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="B93" s="105"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
-      <c r="I93" s="105"/>
-      <c r="J93" s="105"/>
-      <c r="K93" s="106"/>
+      <c r="A93" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="123"/>
+      <c r="C93" s="123"/>
+      <c r="D93" s="123"/>
+      <c r="E93" s="123"/>
+      <c r="F93" s="123"/>
+      <c r="G93" s="123"/>
+      <c r="H93" s="123"/>
+      <c r="I93" s="123"/>
+      <c r="J93" s="123"/>
+      <c r="K93" s="124"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B95" s="41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -5453,15 +5453,15 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B96" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="100"/>
-      <c r="D96" s="101"/>
-      <c r="E96" s="101"/>
-      <c r="F96" s="101"/>
+        <v>74</v>
+      </c>
+      <c r="C96" s="134"/>
+      <c r="D96" s="135"/>
+      <c r="E96" s="135"/>
+      <c r="F96" s="135"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="8"/>
@@ -5470,10 +5470,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="17"/>
@@ -5487,10 +5487,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B98" s="90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -5504,10 +5504,10 @@
     </row>
     <row r="99" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A99" s="65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B99" s="80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -5521,13 +5521,13 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B100" s="35"/>
-      <c r="C100" s="102"/>
-      <c r="D100" s="102"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="102"/>
+      <c r="C100" s="136"/>
+      <c r="D100" s="136"/>
+      <c r="E100" s="136"/>
+      <c r="F100" s="136"/>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="8"/>
@@ -5548,45 +5548,45 @@
       <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A102" s="91" t="s">
-        <v>187</v>
-      </c>
-      <c r="B102" s="92"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="92"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="92"/>
-      <c r="J102" s="92"/>
-      <c r="K102" s="93"/>
+      <c r="A102" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" s="126"/>
+      <c r="C102" s="126"/>
+      <c r="D102" s="126"/>
+      <c r="E102" s="126"/>
+      <c r="F102" s="126"/>
+      <c r="G102" s="126"/>
+      <c r="H102" s="126"/>
+      <c r="I102" s="126"/>
+      <c r="J102" s="126"/>
+      <c r="K102" s="127"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A103" s="94"/>
-      <c r="B103" s="95"/>
-      <c r="C103" s="95"/>
-      <c r="D103" s="95"/>
-      <c r="E103" s="95"/>
-      <c r="F103" s="95"/>
-      <c r="G103" s="95"/>
-      <c r="H103" s="95"/>
-      <c r="I103" s="95"/>
-      <c r="J103" s="95"/>
-      <c r="K103" s="96"/>
+      <c r="A103" s="128"/>
+      <c r="B103" s="129"/>
+      <c r="C103" s="129"/>
+      <c r="D103" s="129"/>
+      <c r="E103" s="129"/>
+      <c r="F103" s="129"/>
+      <c r="G103" s="129"/>
+      <c r="H103" s="129"/>
+      <c r="I103" s="129"/>
+      <c r="J103" s="129"/>
+      <c r="K103" s="130"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A104" s="97"/>
-      <c r="B104" s="98"/>
-      <c r="C104" s="98"/>
-      <c r="D104" s="98"/>
-      <c r="E104" s="98"/>
-      <c r="F104" s="98"/>
-      <c r="G104" s="98"/>
-      <c r="H104" s="98"/>
-      <c r="I104" s="98"/>
-      <c r="J104" s="98"/>
-      <c r="K104" s="99"/>
+      <c r="A104" s="131"/>
+      <c r="B104" s="132"/>
+      <c r="C104" s="132"/>
+      <c r="D104" s="132"/>
+      <c r="E104" s="132"/>
+      <c r="F104" s="132"/>
+      <c r="G104" s="132"/>
+      <c r="H104" s="132"/>
+      <c r="I104" s="132"/>
+      <c r="J104" s="132"/>
+      <c r="K104" s="133"/>
     </row>
     <row r="105" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="67"/>
@@ -5628,26 +5628,26 @@
       <c r="K107" s="4"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A108" s="105" t="s">
-        <v>177</v>
-      </c>
-      <c r="B108" s="105"/>
-      <c r="C108" s="105"/>
-      <c r="D108" s="105"/>
-      <c r="E108" s="105"/>
-      <c r="F108" s="105"/>
-      <c r="G108" s="105"/>
-      <c r="H108" s="105"/>
-      <c r="I108" s="105"/>
-      <c r="J108" s="105"/>
-      <c r="K108" s="106"/>
+      <c r="A108" s="123" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" s="123"/>
+      <c r="C108" s="123"/>
+      <c r="D108" s="123"/>
+      <c r="E108" s="123"/>
+      <c r="F108" s="123"/>
+      <c r="G108" s="123"/>
+      <c r="H108" s="123"/>
+      <c r="I108" s="123"/>
+      <c r="J108" s="123"/>
+      <c r="K108" s="124"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -5661,10 +5661,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B110" s="41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -5678,15 +5678,15 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="C111" s="100"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="101"/>
-      <c r="F111" s="101"/>
+        <v>186</v>
+      </c>
+      <c r="C111" s="134"/>
+      <c r="D111" s="135"/>
+      <c r="E111" s="135"/>
+      <c r="F111" s="135"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="8"/>
@@ -5695,10 +5695,10 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="17"/>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B113" s="90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -5729,10 +5729,10 @@
     </row>
     <row r="114" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A114" s="58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B114" s="80" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -5746,13 +5746,13 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B115" s="35"/>
-      <c r="C115" s="103"/>
-      <c r="D115" s="102"/>
-      <c r="E115" s="102"/>
-      <c r="F115" s="102"/>
+      <c r="C115" s="137"/>
+      <c r="D115" s="136"/>
+      <c r="E115" s="136"/>
+      <c r="F115" s="136"/>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="8"/>
@@ -5773,45 +5773,45 @@
       <c r="K116" s="12"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A117" s="91" t="s">
-        <v>191</v>
-      </c>
-      <c r="B117" s="92"/>
-      <c r="C117" s="92"/>
-      <c r="D117" s="92"/>
-      <c r="E117" s="92"/>
-      <c r="F117" s="92"/>
-      <c r="G117" s="92"/>
-      <c r="H117" s="92"/>
-      <c r="I117" s="92"/>
-      <c r="J117" s="92"/>
-      <c r="K117" s="93"/>
+      <c r="A117" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="B117" s="126"/>
+      <c r="C117" s="126"/>
+      <c r="D117" s="126"/>
+      <c r="E117" s="126"/>
+      <c r="F117" s="126"/>
+      <c r="G117" s="126"/>
+      <c r="H117" s="126"/>
+      <c r="I117" s="126"/>
+      <c r="J117" s="126"/>
+      <c r="K117" s="127"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A118" s="94"/>
-      <c r="B118" s="95"/>
-      <c r="C118" s="95"/>
-      <c r="D118" s="95"/>
-      <c r="E118" s="95"/>
-      <c r="F118" s="95"/>
-      <c r="G118" s="95"/>
-      <c r="H118" s="95"/>
-      <c r="I118" s="95"/>
-      <c r="J118" s="95"/>
-      <c r="K118" s="96"/>
+      <c r="A118" s="128"/>
+      <c r="B118" s="129"/>
+      <c r="C118" s="129"/>
+      <c r="D118" s="129"/>
+      <c r="E118" s="129"/>
+      <c r="F118" s="129"/>
+      <c r="G118" s="129"/>
+      <c r="H118" s="129"/>
+      <c r="I118" s="129"/>
+      <c r="J118" s="129"/>
+      <c r="K118" s="130"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A119" s="97"/>
-      <c r="B119" s="98"/>
-      <c r="C119" s="98"/>
-      <c r="D119" s="98"/>
-      <c r="E119" s="98"/>
-      <c r="F119" s="98"/>
-      <c r="G119" s="98"/>
-      <c r="H119" s="98"/>
-      <c r="I119" s="98"/>
-      <c r="J119" s="98"/>
-      <c r="K119" s="99"/>
+      <c r="A119" s="131"/>
+      <c r="B119" s="132"/>
+      <c r="C119" s="132"/>
+      <c r="D119" s="132"/>
+      <c r="E119" s="132"/>
+      <c r="F119" s="132"/>
+      <c r="G119" s="132"/>
+      <c r="H119" s="132"/>
+      <c r="I119" s="132"/>
+      <c r="J119" s="132"/>
+      <c r="K119" s="133"/>
     </row>
     <row r="120" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="42"/>
@@ -5828,6 +5828,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A117:K119"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A102:K104"/>
+    <mergeCell ref="A108:K108"/>
+    <mergeCell ref="U73:AG73"/>
+    <mergeCell ref="U74:AG74"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="A87:K89"/>
+    <mergeCell ref="U68:AG68"/>
+    <mergeCell ref="U69:AG69"/>
+    <mergeCell ref="U71:AG71"/>
+    <mergeCell ref="U72:AG72"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="U70:AG70"/>
+    <mergeCell ref="A58:AH58"/>
+    <mergeCell ref="H61:S61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:Q62"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="U64:AG64"/>
+    <mergeCell ref="U61:AG62"/>
+    <mergeCell ref="U65:AG65"/>
+    <mergeCell ref="U66:AG66"/>
+    <mergeCell ref="U67:AG67"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
     <mergeCell ref="A43:O43"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E62:G62"/>
@@ -5844,50 +5888,6 @@
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="D37:H37"/>
     <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="U70:AG70"/>
-    <mergeCell ref="A58:AH58"/>
-    <mergeCell ref="H61:S61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:Q62"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="U64:AG64"/>
-    <mergeCell ref="U61:AG62"/>
-    <mergeCell ref="U65:AG65"/>
-    <mergeCell ref="U66:AG66"/>
-    <mergeCell ref="U67:AG67"/>
-    <mergeCell ref="U68:AG68"/>
-    <mergeCell ref="U69:AG69"/>
-    <mergeCell ref="U71:AG71"/>
-    <mergeCell ref="U72:AG72"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A102:K104"/>
-    <mergeCell ref="A108:K108"/>
-    <mergeCell ref="U73:AG73"/>
-    <mergeCell ref="U74:AG74"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="A87:K89"/>
-    <mergeCell ref="A117:K119"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C115:F115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
